--- a/数据整理/stocks/A股/深证主板/002159-三特索道.xlsx
+++ b/数据整理/stocks/A股/深证主板/002159-三特索道.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001564</t>
+          <t>000480</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东方红京东大数据灵活配置混合</t>
+          <t>东方红新动力灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.98</t>
+          <t>15.26</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.61</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7737</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000480</t>
+          <t>001564</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东方红新动力灵活配置混合</t>
+          <t>东方红京东大数据灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.78</t>
+          <t>7.77</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4359</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -594,26 +634,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>257010</t>
+          <t>000480</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国联安小盘精选混合</t>
+          <t>东方红新动力灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>74.19</t>
+          <t>13.16</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7146</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -622,26 +672,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000480</t>
+          <t>001564</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东方红新动力灵活配置混合</t>
+          <t>东方红京东大数据灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>86.14</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>85.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3395</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -650,26 +710,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001564</t>
+          <t>257010</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>东方红京东大数据灵活配置混合</t>
+          <t>国联安小盘精选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>85.48</t>
+          <t>8.98</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>74.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3161</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -688,15 +758,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>42.62</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2.05</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>
@@ -716,15 +796,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>20.40</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>0.96</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>8</v>
       </c>
     </row>
@@ -744,15 +834,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>20.40</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>0.96</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002159-三特索道.xlsx
+++ b/数据整理/stocks/A股/深证主板/002159-三特索道.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000480</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6298</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001564</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红京东大数据灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3077</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2876</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>22.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002159-三特索道.xlsx
+++ b/数据整理/stocks/A股/深证主板/002159-三特索道.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1068,4 +1069,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000480</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6210</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2864</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001564</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红京东大数据灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2764</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>28.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002159-三特索道.xlsx
+++ b/数据整理/stocks/A股/深证主板/002159-三特索道.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1277,4 +1278,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002159-三特索道.xlsx
+++ b/数据整理/stocks/A股/深证主板/002159-三特索道.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1286,7 +1287,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1297,17 +1298,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1317,14 +1338,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.24</v>
+          <t>000480</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6214</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1333,14 +1376,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.28</v>
+          <t>001564</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红京东大数据灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2154</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1349,14 +1414,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>32.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>1.46</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="5">
@@ -1365,13 +1536,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.21</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002159-三特索道.xlsx
+++ b/数据整理/stocks/A股/深证主板/002159-三特索道.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1457,7 +1458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1468,17 +1469,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1488,14 +1509,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.89</v>
+          <t>000480</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6029</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1504,14 +1547,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.24</v>
+          <t>001564</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红京东大数据灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2998</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1520,14 +1585,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>33.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="5">
@@ -1536,14 +1707,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>1.46</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="6">
@@ -1552,13 +1723,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.21</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002159-三特索道.xlsx
+++ b/数据整理/stocks/A股/深证主板/002159-三特索道.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1628,7 +1629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1639,17 +1640,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1659,14 +1680,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.95</v>
+          <t>000480</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5690</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1675,14 +1718,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.89</v>
+          <t>001564</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红京东大数据灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>72.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3242</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1691,14 +1756,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>36.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>1.24</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="5">
@@ -1707,14 +1878,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="6">
@@ -1723,14 +1894,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>1.46</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="7">
@@ -1739,13 +1910,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.21</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002159-三特索道.xlsx
+++ b/数据整理/stocks/A股/深证主板/002159-三特索道.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.95</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="3">
@@ -504,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>1.24</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>1.46</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.21</v>
       </c>
     </row>
@@ -666,26 +683,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.98</t>
+          <t>12.63</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>76.85</t>
+          <t>78.30</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5690</t>
+          <t>0.5216</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -704,26 +721,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.63</t>
+          <t>8.84</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>72.21</t>
+          <t>73.95</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3242</t>
+          <t>0.3076</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -742,26 +759,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>36.36</t>
+          <t>47.79</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0545</t>
+          <t>0.0111</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -836,26 +853,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15.38</t>
+          <t>13.98</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>72.90</t>
+          <t>76.85</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6029</t>
+          <t>0.5690</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -874,22 +891,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11.40</t>
+          <t>10.63</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>69.58</t>
+          <t>72.21</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2998</t>
+          <t>0.3242</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -912,22 +929,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>33.99</t>
+          <t>36.36</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0492</t>
+          <t>0.0545</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1011,21 +1028,21 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>80.11</t>
+          <t>72.90</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6214</t>
+          <t>0.6029</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1044,26 +1061,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.92</t>
+          <t>11.40</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>76.60</t>
+          <t>69.58</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2154</t>
+          <t>0.2998</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1082,26 +1099,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>32.40</t>
+          <t>33.99</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0503</t>
+          <t>0.0492</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1115,7 +1132,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1136,7 +1153,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1176,26 +1193,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.83</t>
+          <t>15.38</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>77.53</t>
+          <t>80.11</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6210</t>
+          <t>0.6214</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1204,32 +1221,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>257010</t>
+          <t>001564</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国联安小盘精选混合</t>
+          <t>东方红京东大数据灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.21</t>
+          <t>7.92</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>73.16</t>
+          <t>76.60</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2864</t>
+          <t>0.2154</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1242,74 +1259,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001564</t>
+          <t>002367</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>东方红京东大数据灵活配置混合</t>
+          <t>国联安安稳灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.92</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>73.16</t>
+          <t>32.40</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2764</t>
+          <t>0.0503</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002367</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国联安安稳灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>28.61</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0556</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1384,26 +1363,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15.14</t>
+          <t>13.83</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.88</t>
+          <t>77.53</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6298</t>
+          <t>0.6210</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1412,32 +1391,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001564</t>
+          <t>257010</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东方红京东大数据灵活配置混合</t>
+          <t>国联安小盘精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.79</t>
+          <t>9.21</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.27</t>
+          <t>73.16</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3077</t>
+          <t>0.2864</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1450,32 +1429,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>257010</t>
+          <t>001564</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国联安小盘精选混合</t>
+          <t>东方红京东大数据灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.46</t>
+          <t>7.92</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>73.51</t>
+          <t>73.16</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2876</t>
+          <t>0.2764</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1498,26 +1477,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>22.77</t>
+          <t>28.61</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0558</t>
+          <t>0.0556</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1526,6 +1505,214 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000480</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6298</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001564</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红京东大数据灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3077</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2876</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>22.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1809,7 +1996,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
